--- a/02. Tests/2021 I. Práctica Calificada 02/Practica 1_Econometria I.xlsx
+++ b/02. Tests/2021 I. Práctica Calificada 02/Practica 1_Econometria I.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometría/02. Tests/2021 I. Práctica Calificada 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometrics I/02. Tests/2021 I. Práctica Calificada 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{7D3EE137-6634-4EAF-95BD-11C753EE365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B73775-DEC4-4A3E-8AC9-92DAB7DDB12E}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{7D3EE137-6634-4EAF-95BD-11C753EE365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BB133B-6D5E-4391-8733-A6EDBE1A2763}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -921,15 +921,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>543538</xdr:colOff>
+      <xdr:colOff>353038</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95350</xdr:rowOff>
+      <xdr:rowOff>171550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,7 +954,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="2428875"/>
+          <a:off x="533400" y="2505075"/>
           <a:ext cx="4391638" cy="714475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -967,15 +967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>409739</xdr:colOff>
+      <xdr:colOff>466889</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>104869</xdr:rowOff>
+      <xdr:rowOff>76294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1010,7 +1010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="4191000"/>
+          <a:off x="819150" y="4162425"/>
           <a:ext cx="1171739" cy="676369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1099,15 +1099,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>581347</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171665</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>124147</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,7 +1130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639675" y="1085850"/>
+          <a:off x="12792075" y="1809750"/>
           <a:ext cx="2305372" cy="1543265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5484,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EN136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14396,7 +14396,7 @@
   <dimension ref="B2:U303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
